--- a/data/raw/2019樣區內獼猴調查.xlsx
+++ b/data/raw/2019樣區內獼猴調查.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\BBS_Macaca\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wetin\Desktop\R\Macaca-population-trend\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE3C9EB-E90B-4A13-85F7-9A5AEF99F9D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8676"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="16584" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -1388,7 +1389,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -1674,11 +1675,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal_Sheet1_Clements 6.4" xfId="3"/>
+    <cellStyle name="Normal_Sheet1_Clements 6.4" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 3" xfId="2"/>
-    <cellStyle name="一般 4" xfId="4"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6675,31 +6676,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P21" sqref="P21"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="35" style="2" customWidth="1"/>
-    <col min="8" max="11" width="8.88671875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="27.88671875" style="2" customWidth="1"/>
-    <col min="13" max="14" width="8.88671875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="8" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="27.88671875" customWidth="1"/>
+    <col min="13" max="14" width="8.88671875" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="48.6">
@@ -6782,7 +6782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:26" customFormat="1">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" customFormat="1">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:26" customFormat="1">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:26" customFormat="1">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:26" customFormat="1">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" customFormat="1">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:26" customFormat="1">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:26" customFormat="1">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:26" customFormat="1">
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:26" customFormat="1">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:26" customFormat="1">
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:26" customFormat="1">
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:26" customFormat="1">
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:26" customFormat="1">
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:26" customFormat="1">
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:26" customFormat="1">
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:26" customFormat="1">
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:26" customFormat="1">
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:26" customFormat="1">
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:26" customFormat="1">
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:26" customFormat="1">
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:26" customFormat="1">
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:26" customFormat="1">
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:26" customFormat="1">
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:26" customFormat="1">
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:26" customFormat="1">
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:26" customFormat="1">
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:26" customFormat="1">
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:26" customFormat="1">
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:26" customFormat="1">
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:26" customFormat="1">
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:26" customFormat="1">
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:26" customFormat="1">
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:26" customFormat="1">
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:26" customFormat="1">
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:26" customFormat="1">
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:26" customFormat="1">
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:26" customFormat="1">
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:26" customFormat="1">
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:26" customFormat="1">
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:26" customFormat="1">
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:26" customFormat="1">
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:26" customFormat="1">
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:26" customFormat="1">
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:26" customFormat="1">
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:26" customFormat="1">
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:26" customFormat="1">
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:26" customFormat="1">
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:26" customFormat="1">
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:26" customFormat="1">
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:26" customFormat="1">
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:26" customFormat="1">
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:26" customFormat="1">
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:26" customFormat="1">
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:26" customFormat="1">
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:26" customFormat="1">
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:26" customFormat="1">
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:26" customFormat="1">
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:26" customFormat="1">
+    <row r="60" spans="1:26">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:26" customFormat="1">
+    <row r="61" spans="1:26">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:26" customFormat="1">
+    <row r="62" spans="1:26">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:26" customFormat="1">
+    <row r="63" spans="1:26">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:26" customFormat="1">
+    <row r="64" spans="1:26">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:26" customFormat="1">
+    <row r="65" spans="1:26">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:26" customFormat="1">
+    <row r="66" spans="1:26">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:26" customFormat="1">
+    <row r="67" spans="1:26">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:26" customFormat="1">
+    <row r="68" spans="1:26">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:26" customFormat="1">
+    <row r="69" spans="1:26">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:26" customFormat="1">
+    <row r="70" spans="1:26">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:26" customFormat="1">
+    <row r="71" spans="1:26">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:26" customFormat="1">
+    <row r="72" spans="1:26">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:26" customFormat="1">
+    <row r="73" spans="1:26">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:26" customFormat="1">
+    <row r="74" spans="1:26">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -11772,7 +11772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:26" customFormat="1">
+    <row r="75" spans="1:26">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:26" customFormat="1">
+    <row r="76" spans="1:26">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:26" customFormat="1">
+    <row r="77" spans="1:26">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:26" customFormat="1">
+    <row r="78" spans="1:26">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:26" customFormat="1">
+    <row r="79" spans="1:26">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:26" customFormat="1">
+    <row r="80" spans="1:26">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:26" customFormat="1">
+    <row r="81" spans="1:26">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:26" customFormat="1">
+    <row r="82" spans="1:26">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:26" customFormat="1">
+    <row r="83" spans="1:26">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:26" customFormat="1">
+    <row r="84" spans="1:26">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:26" customFormat="1">
+    <row r="85" spans="1:26">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:26" customFormat="1">
+    <row r="86" spans="1:26">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:26" customFormat="1">
+    <row r="87" spans="1:26">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:26" customFormat="1">
+    <row r="88" spans="1:26">
       <c r="A88" t="s">
         <v>26</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:26" customFormat="1">
+    <row r="89" spans="1:26">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:26" customFormat="1">
+    <row r="90" spans="1:26">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:26" customFormat="1">
+    <row r="91" spans="1:26">
       <c r="A91" t="s">
         <v>26</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:26" customFormat="1">
+    <row r="92" spans="1:26">
       <c r="A92" t="s">
         <v>26</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:26" customFormat="1">
+    <row r="93" spans="1:26">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:26" customFormat="1">
+    <row r="94" spans="1:26">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -13148,7 +13148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:26" customFormat="1">
+    <row r="95" spans="1:26">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:26" customFormat="1">
+    <row r="96" spans="1:26">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -13290,7 +13290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:26" customFormat="1">
+    <row r="97" spans="1:26">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -13346,7 +13346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:26" customFormat="1">
+    <row r="98" spans="1:26">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:26" customFormat="1">
+    <row r="99" spans="1:26">
       <c r="A99" t="s">
         <v>26</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:26" customFormat="1">
+    <row r="100" spans="1:26">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -13529,7 +13529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:26" customFormat="1">
+    <row r="101" spans="1:26">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -13591,7 +13591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:26" customFormat="1">
+    <row r="102" spans="1:26">
       <c r="A102" t="s">
         <v>26</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:26" customFormat="1">
+    <row r="103" spans="1:26">
       <c r="A103" t="s">
         <v>26</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:26" customFormat="1">
+    <row r="104" spans="1:26">
       <c r="A104" t="s">
         <v>26</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:26" customFormat="1">
+    <row r="105" spans="1:26">
       <c r="A105" t="s">
         <v>26</v>
       </c>
@@ -13872,7 +13872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:26" customFormat="1">
+    <row r="106" spans="1:26">
       <c r="A106" t="s">
         <v>26</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:26" customFormat="1">
+    <row r="107" spans="1:26">
       <c r="A107" t="s">
         <v>26</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:26" customFormat="1">
+    <row r="108" spans="1:26">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:26" customFormat="1">
+    <row r="109" spans="1:26">
       <c r="A109" t="s">
         <v>26</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" s="2" customFormat="1">
       <c r="A110" t="s">
         <v>26</v>
       </c>
@@ -14224,7 +14224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" s="2" customFormat="1">
       <c r="A111" t="s">
         <v>26</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" s="2" customFormat="1">
       <c r="A112" t="s">
         <v>26</v>
       </c>
@@ -14370,7 +14370,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" s="2" customFormat="1">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -14438,7 +14438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" s="2" customFormat="1">
       <c r="A114" t="s">
         <v>26</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" s="2" customFormat="1">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" s="2" customFormat="1">
       <c r="A116" t="s">
         <v>26</v>
       </c>
@@ -14664,7 +14664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" s="2" customFormat="1">
       <c r="A117" t="s">
         <v>26</v>
       </c>
@@ -14738,7 +14738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" s="2" customFormat="1">
       <c r="A118" t="s">
         <v>26</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" s="2" customFormat="1">
       <c r="A119" t="s">
         <v>26</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" s="2" customFormat="1">
       <c r="A120" t="s">
         <v>26</v>
       </c>
@@ -14949,69 +14949,69 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z120">
-    <sortState ref="A2:Z120">
+  <autoFilter ref="A1:Z120" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z120">
       <sortCondition ref="I1:I114"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="18">
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" error="以中華鳥會2012年公布之鳥類名錄為準，亦可輸入不與其他鳥種混淆之中文鳥名，請參考「鳥種名錄」工作表。_x000a__x000a_若不確定物種但可辨別至大類，可以鍵入諸如「XX八哥」、「XX畫眉」之鳥種名。_x000a__x000a_若想輸入的鳥名仍不存在，請選「其他」，並將名稱填寫於「備註」欄位內。" sqref="A1">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" error="以中華鳥會2012年公布之鳥類名錄為準，亦可輸入不與其他鳥種混淆之中文鳥名，請參考「鳥種名錄」工作表。_x000a__x000a_若不確定物種但可辨別至大類，可以鍵入諸如「XX八哥」、「XX畫眉」之鳥種名。_x000a__x000a_若想輸入的鳥名仍不存在，請選「其他」，並將名稱填寫於「備註」欄位內。" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>IF(COUNTIF(INDIRECT("鳥種資料!B:B"),LOOKUP(REPT("龤",255),INDIRECT("birdata!B:B"))),OFFSET(INDIRECT("鳥種資料!B2"),,,SUMPRODUCT(--(INDIRECT("鳥種資料!B1:B1000")&lt;&gt;""))-1),OFFSET(INDIRECT("篩選!B1"),,,SUMPRODUCT(--(INDIRECT("篩選!B1:B1000")&lt;&gt;""))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B23 B39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B23 B39" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"A,B,X"</formula1>
     </dataValidation>
-    <dataValidation type="whole" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="調查月份" error="繁殖季調查限定為2至8月" sqref="Y1 Y15:Y16 Y114">
+    <dataValidation type="whole" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="調查月份" error="繁殖季調查限定為2至8月" sqref="Y1 Y15:Y16 Y114" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>2</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="調查日期" error="2月：1-28日_x000a_3、5、7、8月：1-31日_x000a_4、6月：1-30日" sqref="Z1 Z15:Z16 Z114">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="調查日期" error="2月：1-28日_x000a_3、5、7、8月：1-31日_x000a_4、6月：1-30日" sqref="Z1 Z15:Z16 Z114" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>1</formula1>
       <formula2>31</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="樣點編號" error="請以數字輸入，單一樣區內的樣點數目不超過15個" sqref="I1 I15:I16 I114">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="樣點編號" error="請以數字輸入，單一樣區內的樣點數目不超過15個" sqref="I1 I15:I16 I114" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>1</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="座標系統" error="請由下拉式選單三選一_x000a_TWD67/TM2_x000a_TWD97/TM2_x000a_WGS84經緯度" sqref="O1 O15:O16 O23 O39 O114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="座標系統" error="請由下拉式選單三選一_x000a_TWD67/TM2_x000a_TWD97/TM2_x000a_WGS84經緯度" sqref="O1 O15:O16 O23 O39 O114" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"TWD67/TM2,TWD97/TM2,WGS84/經緯度"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="調查旅次編號" error="請以數字1至4表示旅次編號" sqref="S1 S15:S16 S114">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="調查旅次編號" error="請以數字1至4表示旅次編號" sqref="S1 S15:S16 S114" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="開始時間" error="24小時制" sqref="V1 V15:V16 V114">
+    <dataValidation type="whole" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="開始時間" error="24小時制" sqref="V1 V15:V16 V114" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>0</formula1>
       <formula2>23</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1 W15:W16 W114">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1 W15:W16 W114" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>0</formula1>
       <formula2>59</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="樣區海拔高度" error="請輸入數字_x000a_最小值為 0_x000a_最大值為4000" sqref="N1 N15:N16 N114">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="樣區海拔高度" error="請輸入數字_x000a_最小值為 0_x000a_最大值為4000" sqref="N1 N15:N16 N114" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>0</formula1>
       <formula2>4000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="天氣代號" error="英文字母需大寫_x000a_A：沒有雲, 或零星幾朵雲_x000a_B：部分有雲 (零散) 或雲層多變_x000a_C：雲層滿佈（包括陰天）_x000a_D：濃霧_x000a_E：毛毛雨_x000a_F： 陣雨" sqref="T1 T15:T16 T23 T39 T114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="天氣代號" error="英文字母需大寫_x000a_A：沒有雲, 或零星幾朵雲_x000a_B：部分有雲 (零散) 或雲層多變_x000a_C：雲層滿佈（包括陰天）_x000a_D：濃霧_x000a_E：毛毛雨_x000a_F： 陣雨" sqref="T1 T15:T16 T23 T39 T114" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"A,B,C,D,E,F"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="風速代號" error="0：靜, 樹葉草莖不動（0-0.5m/s）_x000a_1：風拂面, 樹葉有聲, 草莖及小枝動（1.6-5.4m/s）_x000a_2：塵沙飛揚，紙片飛舞，小樹幹搖動（5.5-10.7m/s）_x000a_" sqref="U1 U15:U16 U23 U39 U114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="風速代號" error="0：靜, 樹葉草莖不動（0-0.5m/s）_x000a_1：風拂面, 樹葉有聲, 草莖及小枝動（1.6-5.4m/s）_x000a_2：塵沙飛揚，紙片飛舞，小樹幹搖動（5.5-10.7m/s）_x000a_" sqref="U1 U15:U16 U23 U39 U114" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"0,1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="距離" error="英文字母需大寫_x000a_A = 0-25m_x000a_B = 25-100m_x000a_C = 100m以上_x000a_D = 飛過_x000a_X = 補充記錄" sqref="C1 B9:C9 C15:C16 C23 C39 C114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="距離" error="英文字母需大寫_x000a_A = 0-25m_x000a_B = 25-100m_x000a_C = 100m以上_x000a_D = 飛過_x000a_X = 補充記錄" sqref="C1 B9:C9 C15:C16 C23 C39 C114" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>"A,B,C,D,X"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="結群" error="英文字母需大寫_x000a_Y = 結群（≧5隻一起活動）_x000a_N = 沒有結群" sqref="E1 E9 E15:E16 E23 E39 E114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="結群" error="英文字母需大寫_x000a_Y = 結群（≧5隻一起活動）_x000a_N = 沒有結群" sqref="E1 E9 E15:E16 E23 E39 E114" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" errorTitle="棲地類型" error="請參考「棲地類型」工作表" sqref="L1 L15:L16 L114"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="棲地類型(小水體)" error="A = 有「溪澗」或「溝渠」流過範圍內_x000a_B = 有小面積的「池塘」存在於範圍內_x000a_（但所佔比例不足以成為主要或次要棲地）" promptTitle="棲地類型(小水體)" prompt="A = 有「溪澗」或「溝渠」流過範圍內_x000a_B = 有小面積的「池塘」存在於範圍內_x000a_（但所佔比例不足以成為主要或次要棲地）" sqref="M1 M15:M16 M23 M39 M114">
+    <dataValidation allowBlank="1" showInputMessage="1" errorTitle="棲地類型" error="請參考「棲地類型」工作表" sqref="L1 L15:L16 L114" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="棲地類型(小水體)" error="A = 有「溪澗」或「溝渠」流過範圍內_x000a_B = 有小面積的「池塘」存在於範圍內_x000a_（但所佔比例不足以成為主要或次要棲地）" promptTitle="棲地類型(小水體)" prompt="A = 有「溪澗」或「溝渠」流過範圍內_x000a_B = 有小面積的「池塘」存在於範圍內_x000a_（但所佔比例不足以成為主要或次要棲地）" sqref="M1 M15:M16 M23 M39 M114" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>"A,B"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="棲地類型" error="請參考「棲地類型」工作表" sqref="J15:K16 J114:K114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="棲地類型" error="請參考「棲地類型」工作表" sqref="J15:K16 J114:K114" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>棲地類型</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="時段" error="英文字母需大寫_x000a_A = 0-3分鐘_x000a_B = 3-6分鐘 _x000a_X = &lt;0分鐘 or &gt;6分鐘（補充紀錄）" sqref="B15:B16 B114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="時段" error="英文字母需大寫_x000a_A = 0-3分鐘_x000a_B = 3-6分鐘 _x000a_X = &lt;0分鐘 or &gt;6分鐘（補充紀錄）" sqref="B15:B16 B114" xr:uid="{00000000-0002-0000-0000-000011000000}">
       <formula1>"A,B,X"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15020,13 +15020,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000012000000}">
           <x14:formula1>
             <xm:f>'\\10.40.1.138\Bird Research\BBSTW\01_調查\2017\2017調查資料回收\2017回傳原始資料_通過初步確認\黃美玉1(有猴子) 檢核OK\[2017BBS Taiwan調查資料回傳表-A19-03黃美玉.xlsx]棲地類型'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>J1:K1</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000013000000}">
           <x14:formula1>
             <xm:f>'\\10.40.1.138\Volume_1\BBSTW\01_調查\[BBS Taiwan調查資料回傳表_(姓名).xls]棲地類型'!#REF!</xm:f>
           </x14:formula1>
